--- a/docs/sample-suspension/sample-suspension.xlsx
+++ b/docs/sample-suspension/sample-suspension.xlsx
@@ -889,7 +889,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -929,6 +929,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / mm / cm." sqref="N2:N1048576">
       <formula1>'section_thickness_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="O2:O1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>

--- a/docs/sample-suspension/sample-suspension.xlsx
+++ b/docs/sample-suspension/sample-suspension.xlsx
@@ -16,8 +16,8 @@
     <sheet name="processing_time_unit list" sheetId="7" r:id="rId7"/>
     <sheet name="storage_media list" sheetId="8" r:id="rId8"/>
     <sheet name="storage_temperature list" sheetId="9" r:id="rId9"/>
-    <sheet name="section_thickness_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="area_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="suspension_entity list" sheetId="10" r:id="rId10"/>
+    <sheet name="suspension_enriched list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -194,7 +194,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Thickness of the section</t>
+          <t>The type of single cell entity derived from isolation protocol.</t>
         </r>
       </text>
     </comment>
@@ -207,7 +207,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Thickness unit</t>
+          <t>Total number of cell/nuclei yielded post dissociation and enrichment.</t>
         </r>
       </text>
     </comment>
@@ -220,7 +220,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The index number for the section if the sample is a single section.</t>
+          <t>Was the cell/nuclei population enriched?</t>
         </r>
       </text>
     </comment>
@@ -233,24 +233,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The area of a tissue section.</t>
+          <t>If the suspension was enriched, then this is the target of the enrichment.</t>
         </r>
       </text>
     </comment>
     <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Area unit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>version</t>
   </si>
@@ -444,34 +431,28 @@
     <t>quality_criteria</t>
   </si>
   <si>
-    <t>section_thickness_value</t>
-  </si>
-  <si>
-    <t>section_thickness_unit</t>
-  </si>
-  <si>
-    <t>um</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>section_index_number</t>
-  </si>
-  <si>
-    <t>area_value</t>
-  </si>
-  <si>
-    <t>area_unit</t>
-  </si>
-  <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>um^2</t>
+    <t>suspension_entity</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>nuclei</t>
+  </si>
+  <si>
+    <t>suspension_entity_number</t>
+  </si>
+  <si>
+    <t>suspension_enriched</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>suspension_enriched_target</t>
   </si>
   <si>
     <t>notes</t>
@@ -823,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -832,7 +813,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,23 +854,20 @@
         <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -922,23 +900,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from storage_temperature list." sqref="K2:K1048576">
       <formula1>'storage_temperature list'!$A$1:$A$12</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="M2:M1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: cell / nuclei." sqref="M2:M1048576">
+      <formula1>'suspension_entity list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / mm / cm." sqref="N2:N1048576">
-      <formula1>'section_thickness_unit list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="O2:O1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="N2:N1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm^2 / um^2." sqref="Q2:Q1048576">
-      <formula1>'area_unit list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: yes / no." sqref="O2:O1048576">
+      <formula1>'suspension_enriched list'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,7 +918,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,17 +926,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -984,12 +949,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/sample-suspension/sample-suspension.xlsx
+++ b/docs/sample-suspension/sample-suspension.xlsx
@@ -12,10 +12,10 @@
     <sheet name="type list" sheetId="3" r:id="rId3"/>
     <sheet name="source_storage_time_unit list" sheetId="4" r:id="rId4"/>
     <sheet name="preparation_media list" sheetId="5" r:id="rId5"/>
-    <sheet name="preparation_temperature list" sheetId="6" r:id="rId6"/>
+    <sheet name="preparation_condition list" sheetId="6" r:id="rId6"/>
     <sheet name="processing_time_unit list" sheetId="7" r:id="rId7"/>
     <sheet name="storage_media list" sheetId="8" r:id="rId8"/>
-    <sheet name="storage_temperature list" sheetId="9" r:id="rId9"/>
+    <sheet name="storage_method list" sheetId="9" r:id="rId9"/>
     <sheet name="suspension_entity list" sheetId="10" r:id="rId10"/>
     <sheet name="suspension_enriched list" sheetId="11" r:id="rId11"/>
   </sheets>
@@ -116,7 +116,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The temperature for the preparation process.</t>
+          <t>The condition under which the preparation occurred, such as whether the sample was placed in dry ice during the preparation.</t>
         </r>
       </text>
     </comment>
@@ -168,7 +168,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The temperature during storage, after preparation and before the assay is performed.</t>
+          <t>The method by which the sample was stored, after preparation and before the assay was performed.</t>
         </r>
       </text>
     </comment>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>version</t>
   </si>
@@ -335,31 +335,28 @@
     <t>None</t>
   </si>
   <si>
-    <t>preparation_temperature</t>
-  </si>
-  <si>
-    <t>Liquid Nitrogen</t>
-  </si>
-  <si>
-    <t>Liquid Nitrogen Vapor</t>
-  </si>
-  <si>
-    <t>Dry Ice</t>
-  </si>
-  <si>
-    <t>-80 Celsius</t>
-  </si>
-  <si>
-    <t>-20 Celsius</t>
-  </si>
-  <si>
-    <t>4 Celsius</t>
-  </si>
-  <si>
-    <t>24 Celsius (Room Temperature)</t>
-  </si>
-  <si>
-    <t>37 Celsius</t>
+    <t>preparation_condition</t>
+  </si>
+  <si>
+    <t>frozen in liquid nitrogen</t>
+  </si>
+  <si>
+    <t>frozen in liquid nitrogen vapor</t>
+  </si>
+  <si>
+    <t>frozen in ice</t>
+  </si>
+  <si>
+    <t>frozen in dry ice</t>
+  </si>
+  <si>
+    <t>frozen at -20 C</t>
+  </si>
+  <si>
+    <t>ambient temperature</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>processing_time_value</t>
@@ -407,25 +404,19 @@
     <t>Carboxymethylcellulose (CMC)</t>
   </si>
   <si>
-    <t>storage_temperature</t>
-  </si>
-  <si>
-    <t>Liquid Nitrogen (Unspecified)</t>
-  </si>
-  <si>
-    <t>Liquid Nitrogen (Cryotube)</t>
-  </si>
-  <si>
-    <t>Liquid Nitrogen (Straw)</t>
-  </si>
-  <si>
-    <t>-80 Celsius (Unspecified)</t>
-  </si>
-  <si>
-    <t>-80 Celsius (Cryotube)</t>
-  </si>
-  <si>
-    <t>-80 Celsius (Straw)</t>
+    <t>storage_method</t>
+  </si>
+  <si>
+    <t>frozen at -80 C</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>incubated at 37 C</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>quality_criteria</t>
@@ -836,34 +827,34 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -884,8 +875,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from preparation_media list." sqref="F2:F1048576">
       <formula1>'preparation_media list'!$A$1:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from preparation_temperature list." sqref="G2:G1048576">
-      <formula1>'preparation_temperature list'!$A$1:$A$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from preparation_condition list." sqref="G2:G1048576">
+      <formula1>'preparation_condition list'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="H2:H1048576">
       <formula1>-1e+307</formula1>
@@ -897,8 +888,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from storage_media list." sqref="J2:J1048576">
       <formula1>'storage_media list'!$A$1:$A$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from storage_temperature list." sqref="K2:K1048576">
-      <formula1>'storage_temperature list'!$A$1:$A$12</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from storage_method list." sqref="K2:K1048576">
+      <formula1>'storage_method list'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: cell / nuclei." sqref="M2:M1048576">
       <formula1>'suspension_entity list'!$A$1:$A$2</formula1>
@@ -926,12 +917,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -949,12 +940,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1155,11 +1146,6 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1225,22 +1211,22 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1260,42 +1246,42 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1310,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,62 +1304,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
